--- a/assets/excel/Items_Template.xlsx
+++ b/assets/excel/Items_Template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Name</t>
   </si>
@@ -32,16 +32,13 @@
     <t>Import Data Items</t>
   </si>
   <si>
-    <t>WarehouseItem</t>
-  </si>
-  <si>
     <t>Specification</t>
   </si>
   <si>
-    <t>Image Name</t>
+    <t>Item Code</t>
   </si>
   <si>
-    <t>jika tidak ada, isi "default.jpg"</t>
+    <t>UoM</t>
   </si>
 </sst>
 </file>
@@ -431,7 +428,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -449,19 +446,16 @@
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>

--- a/assets/excel/Items_Template.xlsx
+++ b/assets/excel/Items_Template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>UoM</t>
+  </si>
+  <si>
+    <t>Remarks</t>
   </si>
 </sst>
 </file>
@@ -55,7 +58,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -66,16 +68,15 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,14 +136,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -425,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:XFD37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -436,83 +437,90 @@
     <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="43.140625" customWidth="1"/>
+    <col min="6" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="62.85546875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
     </row>
@@ -602,7 +610,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
